--- a/saved_models/accuracies/regular_model_accuracies.xlsx
+++ b/saved_models/accuracies/regular_model_accuracies.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9577922077922078</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.961038961038961</v>
+        <v>0.9675324675324676</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8798701298701299</v>
+        <v>0.8733766233766234</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         <v>0.9707792207792207</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.8603896103896104</v>
       </c>
     </row>
     <row r="5">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.961038961038961</v>
+        <v>0.974025974025974</v>
       </c>
       <c r="C5" t="n">
         <v>0.8766233766233766</v>
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9642857142857143</v>
+        <v>0.9675324675324676</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8733766233766234</v>
+        <v>0.8766233766233766</v>
       </c>
     </row>
   </sheetData>

--- a/saved_models/accuracies/regular_model_accuracies.xlsx
+++ b/saved_models/accuracies/regular_model_accuracies.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9642857142857143</v>
+        <v>0.95</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9675324675324676</v>
+        <v>0.95</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8733766233766234</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9707792207792207</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8603896103896104</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.974025974025974</v>
+        <v>0.95</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8766233766233766</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9675324675324676</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8766233766233766</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/saved_models/accuracies/regular_model_accuracies.xlsx
+++ b/saved_models/accuracies/regular_model_accuracies.xlsx
@@ -473,7 +473,7 @@
         <v>0.95</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>0.95</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6">

--- a/saved_models/accuracies/regular_model_accuracies.xlsx
+++ b/saved_models/accuracies/regular_model_accuracies.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/saved_models/accuracies/regular_model_accuracies.xlsx
+++ b/saved_models/accuracies/regular_model_accuracies.xlsx
@@ -460,7 +460,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -486,7 +486,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -512,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/saved_models/accuracies/regular_model_accuracies.xlsx
+++ b/saved_models/accuracies/regular_model_accuracies.xlsx
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
